--- a/biology/Médecine/Richard_Peto/Richard_Peto.xlsx
+++ b/biology/Médecine/Richard_Peto/Richard_Peto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Richard Peto (né le 14 mai 1943) est un statisticien et épidémiologiste anglais qui est professeur de statistiques médicales et d'épidémiologie à l'Université d'Oxford[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Richard Peto (né le 14 mai 1943) est un statisticien et épidémiologiste anglais qui est professeur de statistiques médicales et d'épidémiologie à l'Université d'Oxford,.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fréquente la Taunton's School à Southampton et étudie ensuite les tripos en sciences naturelles au Trinity College de Cambridge, suivi d'un Master of Science en statistique à l'Imperial College de Londres.
 Il collabore avec Richard Doll à partir de l'unité de recherche statistique du Conseil de la recherche médicale à Londres. Il crée le Clinical Trial Service Unit (CTSU) à Oxford en 1975 et en est le co-directeur. le paradoxe de Peto porte son nom.
-Il est élu membre de la Royal Society en 1989 pour ses contributions au développement de la méta-analyse. Il est un expert de premier plan sur les décès liés à l'usage du tabac. "Lorsque Sir Richard Peto a commencé à travailler avec le regretté Richard Doll il y a cinquante ans, le Royaume-Uni avait les pires taux de mortalité par tabagisme au monde. Le tabagisme était la cause de plus de la moitié de tous les décès prématurés d'hommes britanniques". Il est fait chevalier pour ses services à l'épidémiologie et à la prévention du cancer en 1999, et il reçoit un doctorat honorifique en sciences médicales de l'université Yale en 2011 [3],[4].
+Il est élu membre de la Royal Society en 1989 pour ses contributions au développement de la méta-analyse. Il est un expert de premier plan sur les décès liés à l'usage du tabac. "Lorsque Sir Richard Peto a commencé à travailler avec le regretté Richard Doll il y a cinquante ans, le Royaume-Uni avait les pires taux de mortalité par tabagisme au monde. Le tabagisme était la cause de plus de la moitié de tous les décès prématurés d'hommes britanniques". Il est fait chevalier pour ses services à l'épidémiologie et à la prévention du cancer en 1999, et il reçoit un doctorat honorifique en sciences médicales de l'université Yale en 2011 ,.
 Son frère Julian Peto, avec qui il publie des travaux en statistique mathématique (par exemple sur le test du logrank), est également un épidémiologiste émérite.
 </t>
         </is>
